--- a/Progetto_SADParte2/campioneEsponenziale.xlsx
+++ b/Progetto_SADParte2/campioneEsponenziale.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="sheet2" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>x</t>
   </si>
@@ -165,6 +166,96 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
 </sst>
 </file>
@@ -226,7 +317,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.14831240285488473</v>
+        <v>12.55257076520789</v>
       </c>
     </row>
     <row r="3">
@@ -234,7 +325,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.488388961032749</v>
+        <v>3.557898564985455</v>
       </c>
     </row>
     <row r="4">
@@ -242,7 +333,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20946678472682834</v>
+        <v>0.06685069104614697</v>
       </c>
     </row>
     <row r="5">
@@ -250,7 +341,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06598943703938503</v>
+        <v>2.4128923169337213</v>
       </c>
     </row>
     <row r="6">
@@ -258,7 +349,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17378235872214037</v>
+        <v>5.6346022568405285</v>
       </c>
     </row>
     <row r="7">
@@ -266,7 +357,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.26449902913064166</v>
+        <v>1.3803918892517686</v>
       </c>
     </row>
     <row r="8">
@@ -274,7 +365,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2811845474292255</v>
+        <v>1.9462668988853693</v>
       </c>
     </row>
     <row r="9">
@@ -282,7 +373,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.016188719154645998</v>
+        <v>11.428783544640424</v>
       </c>
     </row>
     <row r="10">
@@ -290,7 +381,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2541549353491861</v>
+        <v>0.4802580107934773</v>
       </c>
     </row>
     <row r="11">
@@ -298,7 +389,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01834640187810666</v>
+        <v>11.31621519971955</v>
       </c>
     </row>
     <row r="12">
@@ -306,7 +397,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.24964742609451618</v>
+        <v>13.665227582048061</v>
       </c>
     </row>
     <row r="13">
@@ -314,7 +405,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2341150652371567</v>
+        <v>2.618328118696809</v>
       </c>
     </row>
     <row r="14">
@@ -322,7 +413,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3756086382254005</v>
+        <v>2.881713209208101</v>
       </c>
     </row>
     <row r="15">
@@ -330,7 +421,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.40475615329881914</v>
+        <v>3.7096158552677045</v>
       </c>
     </row>
     <row r="16">
@@ -338,7 +429,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08474236274779734</v>
+        <v>13.45168028895128</v>
       </c>
     </row>
     <row r="17">
@@ -346,7 +437,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.33292683883655755</v>
+        <v>2.040098796132952</v>
       </c>
     </row>
     <row r="18">
@@ -354,7 +445,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2746696117751773</v>
+        <v>1.8431996228173375</v>
       </c>
     </row>
     <row r="19">
@@ -362,7 +453,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1236359653994441</v>
+        <v>8.041389435109616</v>
       </c>
     </row>
     <row r="20">
@@ -370,7 +461,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4072943851211708</v>
+        <v>0.6757338019087911</v>
       </c>
     </row>
     <row r="21">
@@ -378,7 +469,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04828296834602952</v>
+        <v>17.353957694836264</v>
       </c>
     </row>
     <row r="22">
@@ -386,7 +477,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8235680677818379</v>
+        <v>11.347663597504976</v>
       </c>
     </row>
     <row r="23">
@@ -394,7 +485,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3582307193288248</v>
+        <v>2.7588560665026307</v>
       </c>
     </row>
     <row r="24">
@@ -402,7 +493,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.12247254063064852</v>
+        <v>5.48440296855409</v>
       </c>
     </row>
     <row r="25">
@@ -410,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03500285046175122</v>
+        <v>0.6254073791205883</v>
       </c>
     </row>
     <row r="26">
@@ -418,7 +509,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2918465043388253</v>
+        <v>5.265434207394089</v>
       </c>
     </row>
     <row r="27">
@@ -426,7 +517,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4588549531235338</v>
+        <v>2.9927703249268234</v>
       </c>
     </row>
     <row r="28">
@@ -434,7 +525,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7543767559853316</v>
+        <v>2.2847651271149516</v>
       </c>
     </row>
     <row r="29">
@@ -442,7 +533,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1179816396906972</v>
+        <v>7.652301610958697</v>
       </c>
     </row>
     <row r="30">
@@ -450,7 +541,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1.1104170859279185</v>
+        <v>7.8033449768839604</v>
       </c>
     </row>
     <row r="31">
@@ -458,7 +549,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0013410391211401</v>
+        <v>1.5181788825429976</v>
       </c>
     </row>
     <row r="32">
@@ -466,7 +557,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.19938470423221588</v>
+        <v>4.278282546228231</v>
       </c>
     </row>
     <row r="33">
@@ -474,7 +565,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7096550743606806</v>
+        <v>21.266505363068347</v>
       </c>
     </row>
     <row r="34">
@@ -482,7 +573,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.357422925828302</v>
+        <v>1.0263060429133475</v>
       </c>
     </row>
     <row r="35">
@@ -490,7 +581,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5580149410633326</v>
+        <v>4.4152301640943294</v>
       </c>
     </row>
     <row r="36">
@@ -498,7 +589,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2662498246117473</v>
+        <v>0.7621052907779813</v>
       </c>
     </row>
     <row r="37">
@@ -506,7 +597,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4224338012917877</v>
+        <v>8.245327285878307</v>
       </c>
     </row>
     <row r="38">
@@ -514,7 +605,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.36968337598435486</v>
+        <v>4.940576003654361</v>
       </c>
     </row>
     <row r="39">
@@ -522,7 +613,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7546231119162958</v>
+        <v>2.101264784578234</v>
       </c>
     </row>
     <row r="40">
@@ -530,7 +621,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1280196680066486</v>
+        <v>6.984734549922051</v>
       </c>
     </row>
     <row r="41">
@@ -538,7 +629,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.390317205636108</v>
+        <v>11.597169664989593</v>
       </c>
     </row>
     <row r="42">
@@ -546,7 +637,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.30620984700660314</v>
+        <v>0.07077284299268359</v>
       </c>
     </row>
     <row r="43">
@@ -554,7 +645,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02540223548809687</v>
+        <v>6.792073342739107</v>
       </c>
     </row>
     <row r="44">
@@ -562,7 +653,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.026429114087174334</v>
+        <v>5.6759553726524725</v>
       </c>
     </row>
     <row r="45">
@@ -570,7 +661,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1718523538050552</v>
+        <v>3.5032482301487287</v>
       </c>
     </row>
     <row r="46">
@@ -578,7 +669,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1.047331611259397</v>
+        <v>5.427746911298982</v>
       </c>
     </row>
     <row r="47">
@@ -586,7 +677,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5132443632302333</v>
+        <v>5.560082159726383</v>
       </c>
     </row>
     <row r="48">
@@ -594,7 +685,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.12621245843668777</v>
+        <v>2.7982898987829685</v>
       </c>
     </row>
     <row r="49">
@@ -602,7 +693,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17276648556192714</v>
+        <v>3.3648452954366803</v>
       </c>
     </row>
     <row r="50">
@@ -610,7 +701,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6671542953419767</v>
+        <v>2.0419215044420325</v>
       </c>
     </row>
     <row r="51">
@@ -618,7 +709,666 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.10078424106662472</v>
+        <v>0.8778095500380001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.004378772851947</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30.119816510189064</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36.27327644388468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.51140982657671</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.8606849569180297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33.77324014734078</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40.53770994557502</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.012060968205333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1115268897265196</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.045442674309015274</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.465351928025484</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7391323193613744</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36.465210099818826</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>53.501074776838074</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.8966646660119295</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.213116731494665</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7.2866421215271115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.14945135358721</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.692701931622747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.1106777442619205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>15.707662030214314</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23.99411746293007</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.7379116965457797</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.630810587666929</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10.600509736266854</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.9824194693937898</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.119041913188994</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.422807569615543</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.143856222832445</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.677816125564277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.293871073052287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7.5751144434781095</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.942939568310976</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9.037694252276356</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>27.28819170840717</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1701291517839712</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5.4989953292533755</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.949043483984592</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.314060925381227</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.885408817077812</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.429491171613336</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.1042224411958257</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20.312491226101166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>28.006075525011074</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5.180053495075162</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.6574245151132345</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7.43016743990493</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>14.07186251049662</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.6931637795642018</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.527658808798214</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.8909727474674582</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.580235416069627</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.194758953526616</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9.573003518906356</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.245679484680295</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>13.812255961400393</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.3432664256725515</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.502164239063859</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6.506694075651467</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.1469840817153454</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>13.21266152853978</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>13.755499999550107</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8.740801522088171</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15.386737826371435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10.203441390347603</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>29.815199820507058</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.8310242333401616</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.1857000226154923</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5.209238789975643</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8.535682288509728</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>29.34136987595634</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.38345157634466887</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>13.77708594272745</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>17.089081368500235</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.1939448944941278</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6.790664070285857</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.387433275580406</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>12.632217090156797</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9.347000354480864</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8.42731966452469</v>
       </c>
     </row>
   </sheetData>
